--- a/test_data.xlsx
+++ b/test_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaylesJ\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HaylesJ\Documents\GitHub\MouserStockTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A965202E-57A2-4007-8B88-2D79D8F7019D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CB94C-ADCE-4BF8-BDD6-D4452DE97944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{31C5C486-C45E-4A5E-BE4C-FFBD1CEF942E}"/>
+    <workbookView xWindow="17940" yWindow="5460" windowWidth="21600" windowHeight="11385" xr2:uid="{31C5C486-C45E-4A5E-BE4C-FFBD1CEF942E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>988-AT45DQ321SHF2BT</t>
-  </si>
-  <si>
-    <t>607-SSDPF21Q400GB01</t>
   </si>
   <si>
     <t>Intel</t>
@@ -107,9 +104,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F1B79D-BA1A-4149-B8A1-84B1824074D9}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,10 +446,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -457,12 +457,12 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -470,19 +470,26 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
